--- a/Personenregister.xlsx
+++ b/Personenregister.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/A327/schelling/Tillich Editionsprojekt/Briefprojekt/2021-2024 FWF Projekt/TEI/Personenregister/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerrit/Documents/GitHub/Edition-Paul-Tillich-s-Correspondence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FCBC52-CCFD-8347-98B3-139E3D427A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D054558-F459-A54F-833D-C621CB7BBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34040" yWindow="1360" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9236" uniqueCount="7431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9237" uniqueCount="7432">
   <si>
     <t>Name</t>
   </si>
@@ -26490,6 +26490,9 @@
   </si>
   <si>
     <t>1863-1947</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -27176,10 +27179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2472"/>
+  <dimension ref="A1:V2473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1585" workbookViewId="0">
-      <selection activeCell="A1603" sqref="A1603"/>
+    <sheetView tabSelected="1" topLeftCell="A2462" workbookViewId="0">
+      <selection activeCell="A2473" sqref="A2473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63423,6 +63426,11 @@
         <v>7426</v>
       </c>
     </row>
+    <row r="2473" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2473" t="s">
+        <v>7431</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V1963">
     <sortCondition ref="B1:B1963"/>
